--- a/EXPORTER_PORTAL/input_data/script/gui_map.xlsx
+++ b/EXPORTER_PORTAL/input_data/script/gui_map.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B9C924B-18E3-41B5-AD6A-1DDF7BA79753}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C4F535F-E5AA-4BD1-88F4-1C1D885E5CD5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="103">
   <si>
     <t>locator_type</t>
   </si>
@@ -226,9 +226,6 @@
     <t>//label[(contains(., 'Name')) and not (contains(., 'How To'))]/following-sibling::input</t>
   </si>
   <si>
-    <t>//h4[contains(., 'Page Contributor')]//ancestor::table[1]/following-sibling::div[1]//input[@value='Add another item']</t>
-  </si>
-  <si>
     <t>//iframe[@title='Rich Text Editor, Summary field']</t>
   </si>
   <si>
@@ -326,6 +323,18 @@
   </si>
   <si>
     <t>//input[(@value='Select Image') or (@value='Select Video') or (@value='Select Block')]</t>
+  </si>
+  <si>
+    <t>LogOut</t>
+  </si>
+  <si>
+    <t>log out</t>
+  </si>
+  <si>
+    <t>//h4[contains(., 'Page Contributor')]//ancestor::table[1]/following-sibling::div[1 or 2]//input[@value='Add another item']</t>
+  </si>
+  <si>
+    <t>//ul[@class='header__dropdown']//a[(.='Log out')]</t>
   </si>
 </sst>
 </file>
@@ -728,10 +737,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -898,16 +907,16 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>97</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -940,16 +949,16 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" s="4" t="s">
         <v>80</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -977,21 +986,21 @@
         <v>2</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -1019,7 +1028,7 @@
         <v>2</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>66</v>
+        <v>101</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -1066,44 +1075,44 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B24" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>2</v>
       </c>
       <c r="D24" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B25" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>2</v>
       </c>
       <c r="D25" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B26" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C26" s="6" t="s">
         <v>2</v>
       </c>
       <c r="D26" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -1136,72 +1145,86 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B29" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C29" s="7" t="s">
         <v>2</v>
       </c>
       <c r="D29" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
+        <v>69</v>
+      </c>
+      <c r="B30" t="s">
         <v>70</v>
       </c>
-      <c r="B30" t="s">
+      <c r="C30" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D30" t="s">
         <v>71</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D30" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
+        <v>72</v>
+      </c>
+      <c r="B31" t="s">
         <v>73</v>
       </c>
-      <c r="B31" t="s">
-        <v>74</v>
-      </c>
       <c r="C31" s="7" t="s">
         <v>2</v>
       </c>
       <c r="D31" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
+        <v>75</v>
+      </c>
+      <c r="B32" t="s">
+        <v>74</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D32" t="s">
         <v>76</v>
-      </c>
-      <c r="B32" t="s">
-        <v>75</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D32" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B33" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C33" s="7" t="s">
         <v>2</v>
       </c>
       <c r="D33" t="s">
-        <v>83</v>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>100</v>
+      </c>
+      <c r="B34" t="s">
+        <v>99</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D34" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>

--- a/EXPORTER_PORTAL/input_data/script/gui_map.xlsx
+++ b/EXPORTER_PORTAL/input_data/script/gui_map.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C4F535F-E5AA-4BD1-88F4-1C1D885E5CD5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A01450EE-7B4E-4F9D-A9C2-49FC1487A001}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="109">
   <si>
     <t>locator_type</t>
   </si>
@@ -178,9 +178,6 @@
     <t>Button Save</t>
   </si>
   <si>
-    <t>//tr[~val~]//select[contains(@class, 'simpler-select form-select required simpler-select-root') or contains(@class, 'simpler-select form-select simpler-select-root')]</t>
-  </si>
-  <si>
     <t>//div[contains(., 'as been created.')]</t>
   </si>
   <si>
@@ -335,6 +332,27 @@
   </si>
   <si>
     <t>//ul[@class='header__dropdown']//a[(.='Log out')]</t>
+  </si>
+  <si>
+    <t>//select[contains(@id, 'trade-region')]</t>
+  </si>
+  <si>
+    <t>trade region</t>
+  </si>
+  <si>
+    <t>tradeRegion</t>
+  </si>
+  <si>
+    <t>//table[@id='field-lp-industry-values']//select[@class='simpler-select form-select required simpler-select-root']</t>
+  </si>
+  <si>
+    <t>Industries</t>
+  </si>
+  <si>
+    <t>industries</t>
+  </si>
+  <si>
+    <t>//table[contains(@id,'field-ua-page-contributor-values')]//tr[~val~]//select[contains(@class, 'simpler-select form-select required simpler-select-root') or contains(@class, 'simpler-select form-select simpler-select-root')]</t>
   </si>
 </sst>
 </file>
@@ -737,10 +755,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -893,72 +911,72 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>96</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" s="4" t="s">
         <v>79</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -986,21 +1004,21 @@
         <v>2</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -1014,7 +1032,7 @@
         <v>2</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>50</v>
+        <v>108</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -1028,7 +1046,7 @@
         <v>2</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -1075,156 +1093,184 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B24" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>2</v>
       </c>
       <c r="D24" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B25" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>2</v>
       </c>
       <c r="D25" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B26" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C26" s="6" t="s">
         <v>2</v>
       </c>
       <c r="D26" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B27" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C27" s="7" t="s">
         <v>2</v>
       </c>
       <c r="D27" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B28" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C28" s="7" t="s">
         <v>2</v>
       </c>
       <c r="D28" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B29" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C29" s="7" t="s">
         <v>2</v>
       </c>
       <c r="D29" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
+        <v>68</v>
+      </c>
+      <c r="B30" t="s">
         <v>69</v>
       </c>
-      <c r="B30" t="s">
+      <c r="C30" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D30" t="s">
         <v>70</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D30" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
+        <v>71</v>
+      </c>
+      <c r="B31" t="s">
         <v>72</v>
       </c>
-      <c r="B31" t="s">
-        <v>73</v>
-      </c>
       <c r="C31" s="7" t="s">
         <v>2</v>
       </c>
       <c r="D31" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
+        <v>74</v>
+      </c>
+      <c r="B32" t="s">
+        <v>73</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D32" t="s">
         <v>75</v>
-      </c>
-      <c r="B32" t="s">
-        <v>74</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D32" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B33" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C33" s="7" t="s">
         <v>2</v>
       </c>
       <c r="D33" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B34" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C34" s="7" t="s">
         <v>2</v>
       </c>
       <c r="D34" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>103</v>
+      </c>
+      <c r="B35" t="s">
+        <v>104</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D35" t="s">
         <v>102</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>107</v>
+      </c>
+      <c r="B36" t="s">
+        <v>106</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D36" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>
